--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -34,9 +34,6 @@
     <t>ZP_Charge</t>
   </si>
   <si>
-    <t>Incu_Protein_Source</t>
-  </si>
-  <si>
     <t>Plasma_Conc_Group</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Shaking_or_Agitation</t>
+  </si>
+  <si>
+    <t>Incu_Protein_Source</t>
   </si>
   <si>
     <t>TOTAL RPA</t>
@@ -457,9 +457,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>Human Plasma</t>
-  </si>
-  <si>
     <t>50~100</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Human Plasma</t>
   </si>
   <si>
     <t>&gt;150</t>
@@ -3398,7 +3398,7 @@
         <v>147</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>149</v>
@@ -3407,7 +3407,7 @@
         <v>150</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="1"/>
@@ -3831,10 +3831,10 @@
         <v>149</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
@@ -4258,10 +4258,10 @@
         <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
@@ -4685,10 +4685,10 @@
         <v>149</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="1"/>
@@ -5112,10 +5112,10 @@
         <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
@@ -5538,10 +5538,10 @@
         <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
@@ -5958,16 +5958,16 @@
         <v>147</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="1"/>
@@ -6384,16 +6384,16 @@
         <v>147</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="1"/>
@@ -6810,16 +6810,16 @@
         <v>147</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="1"/>
@@ -7236,16 +7236,16 @@
         <v>147</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="1"/>
@@ -7662,16 +7662,16 @@
         <v>147</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="1"/>
@@ -8089,16 +8089,16 @@
         <v>153</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="1"/>
@@ -8515,16 +8515,16 @@
         <v>147</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
@@ -8929,7 +8929,7 @@
         <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>145</v>
@@ -10207,7 +10207,7 @@
         <v>166</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>167</v>
@@ -10225,10 +10225,10 @@
         <v>149</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="1"/>
@@ -10651,10 +10651,10 @@
         <v>149</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="1"/>
@@ -11077,10 +11077,10 @@
         <v>149</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="1"/>
@@ -11485,7 +11485,7 @@
         <v>166</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>167</v>
@@ -11503,10 +11503,10 @@
         <v>149</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="1"/>
@@ -11929,10 +11929,10 @@
         <v>149</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="1"/>
@@ -12355,10 +12355,10 @@
         <v>149</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="1"/>
@@ -12763,7 +12763,7 @@
         <v>166</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>167</v>
@@ -12781,10 +12781,10 @@
         <v>149</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="1"/>
@@ -13207,10 +13207,10 @@
         <v>149</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="1"/>
@@ -13615,7 +13615,7 @@
         <v>166</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>167</v>
@@ -13633,10 +13633,10 @@
         <v>149</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="1"/>
@@ -14059,10 +14059,10 @@
         <v>149</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="1"/>
@@ -14485,10 +14485,10 @@
         <v>149</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="1"/>
@@ -14893,7 +14893,7 @@
         <v>166</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>167</v>
@@ -14911,10 +14911,10 @@
         <v>149</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="1"/>
@@ -15337,10 +15337,10 @@
         <v>149</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="1"/>
@@ -15763,10 +15763,10 @@
         <v>149</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="1"/>
@@ -16171,7 +16171,7 @@
         <v>166</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>167</v>
@@ -16189,10 +16189,10 @@
         <v>149</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="1"/>
@@ -16615,10 +16615,10 @@
         <v>149</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
@@ -17023,7 +17023,7 @@
         <v>166</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>167</v>
@@ -17041,10 +17041,10 @@
         <v>149</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="1"/>
@@ -17467,10 +17467,10 @@
         <v>149</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="1"/>
@@ -17893,10 +17893,10 @@
         <v>149</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="1"/>
@@ -18301,7 +18301,7 @@
         <v>166</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>167</v>
@@ -18319,10 +18319,10 @@
         <v>149</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="1"/>
@@ -18745,10 +18745,10 @@
         <v>149</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="1"/>
@@ -19171,10 +19171,10 @@
         <v>149</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="1"/>
@@ -19579,7 +19579,7 @@
         <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>167</v>
@@ -19597,10 +19597,10 @@
         <v>149</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="1"/>
@@ -20023,10 +20023,10 @@
         <v>149</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="1"/>
@@ -20443,10 +20443,10 @@
         <v>147</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>150</v>
@@ -21295,10 +21295,10 @@
         <v>147</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>150</v>
@@ -23000,16 +23000,16 @@
         <v>153</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" si="1"/>
@@ -23414,7 +23414,7 @@
         <v>168</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>159</v>
@@ -23427,16 +23427,16 @@
         <v>153</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="1"/>
@@ -23854,16 +23854,16 @@
         <v>153</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="1"/>
@@ -24280,16 +24280,16 @@
         <v>155</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="1"/>
@@ -24694,7 +24694,7 @@
         <v>168</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>159</v>
@@ -24706,16 +24706,16 @@
         <v>147</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L57" s="3">
         <f t="shared" si="1"/>
@@ -25132,16 +25132,16 @@
         <v>147</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L58" s="3">
         <f t="shared" si="1"/>
@@ -25559,16 +25559,16 @@
         <v>153</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L59" s="3">
         <f t="shared" si="1"/>
@@ -25985,16 +25985,16 @@
         <v>147</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="1"/>
@@ -26411,16 +26411,16 @@
         <v>147</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L61" s="3">
         <f t="shared" si="1"/>
@@ -26838,16 +26838,16 @@
         <v>153</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="1"/>
@@ -27270,10 +27270,10 @@
         <v>149</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="1"/>
@@ -27696,10 +27696,10 @@
         <v>149</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="1"/>
@@ -28104,7 +28104,7 @@
         <v>169</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>145</v>
@@ -28530,7 +28530,7 @@
         <v>169</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>145</v>
@@ -28957,7 +28957,7 @@
         <v>169</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>145</v>
@@ -29384,7 +29384,7 @@
         <v>169</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>145</v>
@@ -29810,7 +29810,7 @@
         <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>145</v>
@@ -29822,16 +29822,16 @@
         <v>155</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L69" s="3">
         <f t="shared" si="1"/>
@@ -30236,7 +30236,7 @@
         <v>169</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>145</v>
@@ -30249,16 +30249,16 @@
         <v>153</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="1"/>
@@ -30663,7 +30663,7 @@
         <v>169</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>145</v>
@@ -30676,16 +30676,16 @@
         <v>153</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L71" s="3">
         <f t="shared" si="1"/>
@@ -31090,7 +31090,7 @@
         <v>169</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>145</v>
@@ -31102,16 +31102,16 @@
         <v>155</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="1"/>
@@ -31528,16 +31528,16 @@
         <v>155</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="1"/>
@@ -31954,16 +31954,16 @@
         <v>155</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" si="1"/>
@@ -32380,16 +32380,16 @@
         <v>155</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="1"/>
@@ -32806,16 +32806,16 @@
         <v>155</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L76" s="3">
         <f t="shared" si="1"/>
@@ -33232,16 +33232,16 @@
         <v>155</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="1"/>
@@ -33658,7 +33658,7 @@
         <v>155</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>149</v>
@@ -33667,7 +33667,7 @@
         <v>150</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="1"/>
@@ -34084,7 +34084,7 @@
         <v>155</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>149</v>
@@ -34093,7 +34093,7 @@
         <v>150</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="1"/>
@@ -34510,16 +34510,16 @@
         <v>155</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L80" s="3">
         <f t="shared" si="1"/>
@@ -34936,16 +34936,16 @@
         <v>155</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L81" s="3">
         <f t="shared" si="1"/>
@@ -35362,16 +35362,16 @@
         <v>155</v>
       </c>
       <c r="H82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L82" s="3">
         <f t="shared" si="1"/>
@@ -35788,16 +35788,16 @@
         <v>155</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L83" s="3">
         <f t="shared" si="1"/>
@@ -36214,16 +36214,16 @@
         <v>155</v>
       </c>
       <c r="H84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" si="1"/>
@@ -36640,16 +36640,16 @@
         <v>155</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L85" s="3">
         <f t="shared" si="1"/>
@@ -37066,7 +37066,7 @@
         <v>155</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>149</v>
@@ -37075,7 +37075,7 @@
         <v>150</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L86" s="3">
         <f t="shared" si="1"/>
@@ -37492,7 +37492,7 @@
         <v>155</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>149</v>
@@ -37501,7 +37501,7 @@
         <v>150</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L87" s="3">
         <f t="shared" si="1"/>
@@ -37918,16 +37918,16 @@
         <v>155</v>
       </c>
       <c r="H88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L88" s="3">
         <f t="shared" si="1"/>
@@ -38344,16 +38344,16 @@
         <v>147</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L89" s="3">
         <f t="shared" si="1"/>
@@ -38770,16 +38770,16 @@
         <v>147</v>
       </c>
       <c r="H90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L90" s="3">
         <f t="shared" si="1"/>
@@ -39196,16 +39196,16 @@
         <v>147</v>
       </c>
       <c r="H91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L91" s="3">
         <f t="shared" si="1"/>
@@ -39622,16 +39622,16 @@
         <v>147</v>
       </c>
       <c r="H92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="1"/>
@@ -40048,16 +40048,16 @@
         <v>147</v>
       </c>
       <c r="H93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L93" s="3">
         <f t="shared" si="1"/>
@@ -40474,16 +40474,16 @@
         <v>147</v>
       </c>
       <c r="H94" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L94" s="3">
         <f t="shared" si="1"/>
@@ -40900,16 +40900,16 @@
         <v>147</v>
       </c>
       <c r="H95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L95" s="3">
         <f t="shared" si="1"/>
@@ -41314,7 +41314,7 @@
         <v>161</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>159</v>
@@ -41326,16 +41326,16 @@
         <v>147</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L96" s="3">
         <f t="shared" si="1"/>
@@ -41752,16 +41752,16 @@
         <v>147</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L97" s="3">
         <f t="shared" si="1"/>
@@ -42178,16 +42178,16 @@
         <v>147</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L98" s="3">
         <f t="shared" si="1"/>
@@ -42604,16 +42604,16 @@
         <v>147</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L99" s="3">
         <f t="shared" si="1"/>
@@ -43030,16 +43030,16 @@
         <v>147</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L100" s="3">
         <f t="shared" si="1"/>
@@ -43457,16 +43457,16 @@
         <v>153</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L101" s="3">
         <f t="shared" si="1"/>
@@ -43884,16 +43884,16 @@
         <v>153</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L102" s="3">
         <f t="shared" si="1"/>
@@ -44313,13 +44313,13 @@
         <v>148</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L103" s="3">
         <f t="shared" si="1"/>
@@ -44739,13 +44739,13 @@
         <v>148</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L104" s="3">
         <f t="shared" si="1"/>
@@ -45165,13 +45165,13 @@
         <v>148</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L105" s="3">
         <f t="shared" si="1"/>
@@ -45591,13 +45591,13 @@
         <v>148</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L106" s="3">
         <f t="shared" si="1"/>
@@ -46017,13 +46017,13 @@
         <v>148</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L107" s="3">
         <f t="shared" si="1"/>
@@ -46443,13 +46443,13 @@
         <v>148</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L108" s="3">
         <f t="shared" si="1"/>
@@ -46869,13 +46869,13 @@
         <v>148</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L109" s="3">
         <f t="shared" si="1"/>
@@ -47298,10 +47298,10 @@
         <v>149</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L110" s="3">
         <f t="shared" si="1"/>
@@ -47724,10 +47724,10 @@
         <v>149</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L111" s="3">
         <f t="shared" si="1"/>
@@ -48147,10 +48147,10 @@
         <v>148</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>151</v>
@@ -48558,7 +48558,7 @@
         <v>161</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>159</v>
@@ -48573,10 +48573,10 @@
         <v>148</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>151</v>
@@ -48999,10 +48999,10 @@
         <v>148</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>151</v>
@@ -49410,7 +49410,7 @@
         <v>161</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>159</v>
@@ -49425,10 +49425,10 @@
         <v>148</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>151</v>
@@ -49851,10 +49851,10 @@
         <v>148</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>151</v>
@@ -50262,7 +50262,7 @@
         <v>161</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>159</v>
@@ -50700,16 +50700,16 @@
         <v>147</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L118" s="3">
         <f t="shared" si="1"/>
@@ -51132,10 +51132,10 @@
         <v>149</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L119" s="3">
         <f t="shared" si="1"/>
@@ -51552,16 +51552,16 @@
         <v>147</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L120" s="3">
         <f t="shared" si="1"/>
@@ -51984,10 +51984,10 @@
         <v>149</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L121" s="3">
         <f t="shared" si="1"/>
@@ -52404,16 +52404,16 @@
         <v>147</v>
       </c>
       <c r="H122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L122" s="3">
         <f t="shared" si="1"/>
@@ -52830,16 +52830,16 @@
         <v>147</v>
       </c>
       <c r="H123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L123" s="3">
         <f t="shared" si="1"/>
@@ -53256,16 +53256,16 @@
         <v>147</v>
       </c>
       <c r="H124" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L124" s="3">
         <f t="shared" si="1"/>
@@ -53682,16 +53682,16 @@
         <v>147</v>
       </c>
       <c r="H125" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L125" s="3">
         <f t="shared" si="1"/>
@@ -54108,16 +54108,16 @@
         <v>147</v>
       </c>
       <c r="H126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L126" s="3">
         <f t="shared" si="1"/>
@@ -54534,16 +54534,16 @@
         <v>147</v>
       </c>
       <c r="H127" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L127" s="3">
         <f t="shared" si="1"/>
@@ -54960,16 +54960,16 @@
         <v>147</v>
       </c>
       <c r="H128" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L128" s="3">
         <f t="shared" si="1"/>
@@ -55386,16 +55386,16 @@
         <v>147</v>
       </c>
       <c r="H129" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L129" s="3">
         <f t="shared" si="1"/>
@@ -55812,16 +55812,16 @@
         <v>147</v>
       </c>
       <c r="H130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L130" s="3">
         <f t="shared" si="1"/>
@@ -56238,16 +56238,16 @@
         <v>147</v>
       </c>
       <c r="H131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K131" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L131" s="3">
         <f t="shared" si="1"/>
@@ -56664,16 +56664,16 @@
         <v>147</v>
       </c>
       <c r="H132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K132" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L132" s="3">
         <f t="shared" si="1"/>
@@ -57090,16 +57090,16 @@
         <v>147</v>
       </c>
       <c r="H133" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L133" s="3">
         <f t="shared" si="1"/>
@@ -57516,16 +57516,16 @@
         <v>147</v>
       </c>
       <c r="H134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K134" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L134" s="3">
         <f t="shared" si="1"/>
@@ -57942,16 +57942,16 @@
         <v>147</v>
       </c>
       <c r="H135" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L135" s="3">
         <f t="shared" si="1"/>
@@ -58368,16 +58368,16 @@
         <v>147</v>
       </c>
       <c r="H136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K136" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L136" s="3">
         <f t="shared" si="1"/>
@@ -58794,16 +58794,16 @@
         <v>147</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K137" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L137" s="3">
         <f t="shared" si="1"/>
@@ -60477,7 +60477,7 @@
         <v>168</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>159</v>
@@ -60489,16 +60489,16 @@
         <v>155</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L141" s="3">
         <f t="shared" si="1"/>
@@ -60903,7 +60903,7 @@
         <v>168</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>159</v>
@@ -60921,10 +60921,10 @@
         <v>149</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L142" s="3">
         <f t="shared" si="1"/>
@@ -61329,7 +61329,7 @@
         <v>168</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>159</v>
@@ -61341,16 +61341,16 @@
         <v>155</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L143" s="3">
         <f t="shared" si="1"/>
@@ -61755,7 +61755,7 @@
         <v>168</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>159</v>
@@ -61773,10 +61773,10 @@
         <v>149</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L144" s="3">
         <f t="shared" si="1"/>
@@ -66441,7 +66441,7 @@
         <v>161</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>159</v>
@@ -66453,16 +66453,16 @@
         <v>155</v>
       </c>
       <c r="H155" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K155" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L155" s="3">
         <f t="shared" si="1"/>
@@ -66867,7 +66867,7 @@
         <v>161</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>159</v>
@@ -66879,16 +66879,16 @@
         <v>155</v>
       </c>
       <c r="H156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K156" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L156" s="3">
         <f t="shared" si="1"/>
@@ -67293,7 +67293,7 @@
         <v>161</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>159</v>
@@ -67305,16 +67305,16 @@
         <v>155</v>
       </c>
       <c r="H157" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K157" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L157" s="3">
         <f t="shared" si="1"/>
@@ -67719,7 +67719,7 @@
         <v>169</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>178</v>
@@ -68145,7 +68145,7 @@
         <v>169</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>178</v>
@@ -68571,7 +68571,7 @@
         <v>169</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>178</v>
@@ -68997,7 +68997,7 @@
         <v>169</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>178</v>
@@ -69423,7 +69423,7 @@
         <v>169</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>178</v>
@@ -69849,7 +69849,7 @@
         <v>169</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>178</v>
@@ -70276,7 +70276,7 @@
         <v>169</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>178</v>
@@ -70716,16 +70716,16 @@
         <v>153</v>
       </c>
       <c r="H165" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K165" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="L165" s="3">
         <f t="shared" si="1"/>
@@ -71143,16 +71143,16 @@
         <v>153</v>
       </c>
       <c r="H166" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K166" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L166" s="3">
         <f t="shared" si="1"/>
@@ -71575,10 +71575,10 @@
         <v>149</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L167" s="3">
         <f t="shared" si="1"/>
@@ -72001,10 +72001,10 @@
         <v>149</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L168" s="3">
         <f t="shared" si="1"/>
@@ -72427,10 +72427,10 @@
         <v>149</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L169" s="3">
         <f t="shared" si="1"/>
@@ -72850,13 +72850,13 @@
         <v>148</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L170" s="3">
         <f t="shared" si="1"/>
@@ -73273,16 +73273,16 @@
         <v>147</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L171" s="3">
         <f t="shared" si="1"/>
@@ -73699,16 +73699,16 @@
         <v>147</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L172" s="3">
         <f t="shared" si="1"/>
@@ -74125,16 +74125,16 @@
         <v>147</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L173" s="3">
         <f t="shared" si="1"/>
@@ -74551,16 +74551,16 @@
         <v>153</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L174" s="3">
         <f t="shared" si="1"/>
@@ -74965,7 +74965,7 @@
         <v>161</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>159</v>
@@ -74977,16 +74977,16 @@
         <v>153</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L175" s="3">
         <f t="shared" si="1"/>
@@ -75409,10 +75409,10 @@
         <v>149</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L176" s="3">
         <f t="shared" si="1"/>
@@ -75835,10 +75835,10 @@
         <v>149</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L177" s="3">
         <f t="shared" si="1"/>
@@ -76261,10 +76261,10 @@
         <v>149</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L178" s="3">
         <f t="shared" si="1"/>
@@ -76687,10 +76687,10 @@
         <v>149</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L179" s="3">
         <f t="shared" si="1"/>
@@ -77107,16 +77107,16 @@
         <v>155</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L180" s="3">
         <f t="shared" si="1"/>
@@ -77521,7 +77521,7 @@
         <v>161</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>145</v>
@@ -77533,16 +77533,16 @@
         <v>147</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L181" s="3">
         <f t="shared" si="1"/>
@@ -77959,16 +77959,16 @@
         <v>147</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L182" s="3">
         <f t="shared" si="1"/>
@@ -78373,7 +78373,7 @@
         <v>168</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>145</v>
@@ -78385,16 +78385,16 @@
         <v>147</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L183" s="3">
         <f t="shared" si="1"/>
@@ -78799,7 +78799,7 @@
         <v>161</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>145</v>
@@ -78811,16 +78811,16 @@
         <v>155</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L184" s="3">
         <f t="shared" si="1"/>
@@ -79237,16 +79237,16 @@
         <v>147</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L185" s="3">
         <f t="shared" si="1"/>
@@ -79663,16 +79663,16 @@
         <v>147</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L186" s="3">
         <f t="shared" si="1"/>
@@ -80089,16 +80089,16 @@
         <v>147</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L187" s="3">
         <f t="shared" si="1"/>
@@ -84341,7 +84341,7 @@
         <v>169</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>145</v>
@@ -84353,16 +84353,16 @@
         <v>147</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L197" s="3">
         <f t="shared" si="1"/>
@@ -84767,7 +84767,7 @@
         <v>169</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>145</v>
@@ -84779,16 +84779,16 @@
         <v>147</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L198" s="3">
         <f t="shared" si="1"/>
@@ -85193,7 +85193,7 @@
         <v>169</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>145</v>
@@ -85211,10 +85211,10 @@
         <v>149</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L199" s="3">
         <f t="shared" si="1"/>
@@ -85619,7 +85619,7 @@
         <v>169</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>145</v>
@@ -85637,10 +85637,10 @@
         <v>149</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L200" s="3">
         <f t="shared" si="1"/>
